--- a/meteor_shower/real_data/Excel/cities_crawl.xlsx
+++ b/meteor_shower/real_data/Excel/cities_crawl.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONG\Documents\R_Study\meteor_shower\real_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\multicampus\Documents\R_Study\meteor_shower\real_data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19845" windowHeight="9015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19848" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="cities_crawl" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="485">
   <si>
     <t>Latitude</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Country</t>
   </si>
   <si>
-    <t>−0.25</t>
-  </si>
-  <si>
     <t>Quito</t>
   </si>
   <si>
@@ -73,18 +70,12 @@
     <t>Gabon</t>
   </si>
   <si>
-    <t>−0.53</t>
-  </si>
-  <si>
     <t>Yaren (de facto)</t>
   </si>
   <si>
     <t>Nauru</t>
   </si>
   <si>
-    <t>−1.28</t>
-  </si>
-  <si>
     <t>Nairobi</t>
   </si>
   <si>
@@ -100,9 +91,6 @@
     <t>Kiribati</t>
   </si>
   <si>
-    <t>−1.93</t>
-  </si>
-  <si>
     <t>Kigali</t>
   </si>
   <si>
@@ -118,9 +106,6 @@
     <t>Malaysia</t>
   </si>
   <si>
-    <t>−3.43</t>
-  </si>
-  <si>
     <t>Gitega</t>
   </si>
   <si>
@@ -145,18 +130,12 @@
     <t>Maldives</t>
   </si>
   <si>
-    <t>−4.27</t>
-  </si>
-  <si>
     <t>Brazzaville</t>
   </si>
   <si>
     <t>Republic of the Congo</t>
   </si>
   <si>
-    <t>−4.32</t>
-  </si>
-  <si>
     <t>Kinshasa</t>
   </si>
   <si>
@@ -175,9 +154,6 @@
     <t>Colombia</t>
   </si>
   <si>
-    <t>−4.62</t>
-  </si>
-  <si>
     <t>Victoria</t>
   </si>
   <si>
@@ -220,15 +196,9 @@
     <t>Togo</t>
   </si>
   <si>
-    <t>−6.17</t>
-  </si>
-  <si>
     <t>Tanzania</t>
   </si>
   <si>
-    <t>−6.2</t>
-  </si>
-  <si>
     <t>Jakarta</t>
   </si>
   <si>
@@ -274,9 +244,6 @@
     <t>Palau</t>
   </si>
   <si>
-    <t>−7.92</t>
-  </si>
-  <si>
     <t>Ascension Island</t>
   </si>
   <si>
@@ -286,27 +253,18 @@
     <t>Sierra Leone</t>
   </si>
   <si>
-    <t>−8.52</t>
-  </si>
-  <si>
     <t>Funafuti</t>
   </si>
   <si>
     <t>Tuvalu</t>
   </si>
   <si>
-    <t>−8.57</t>
-  </si>
-  <si>
     <t>Dili</t>
   </si>
   <si>
     <t>East Timor (Timor-Leste)</t>
   </si>
   <si>
-    <t>−8.83</t>
-  </si>
-  <si>
     <t>Luanda</t>
   </si>
   <si>
@@ -331,18 +289,12 @@
     <t>Nigeria</t>
   </si>
   <si>
-    <t>−9.43</t>
-  </si>
-  <si>
     <t>Honiara</t>
   </si>
   <si>
     <t>Solomon Islands</t>
   </si>
   <si>
-    <t>−9.5</t>
-  </si>
-  <si>
     <t>Port Moresby</t>
   </si>
   <si>
@@ -367,9 +319,6 @@
     <t>Somaliland</t>
   </si>
   <si>
-    <t>−10.42</t>
-  </si>
-  <si>
     <t>Flying Fish Cove</t>
   </si>
   <si>
@@ -397,9 +346,6 @@
     <t>Djibouti</t>
   </si>
   <si>
-    <t>−11.68</t>
-  </si>
-  <si>
     <t>Moroni</t>
   </si>
   <si>
@@ -412,9 +358,6 @@
     <t>Guinea-Bissau</t>
   </si>
   <si>
-    <t>−12.03</t>
-  </si>
-  <si>
     <t>Lima</t>
   </si>
   <si>
@@ -445,9 +388,6 @@
     <t>Nicaragua</t>
   </si>
   <si>
-    <t>−12.18</t>
-  </si>
-  <si>
     <t>West Island</t>
   </si>
   <si>
@@ -484,9 +424,6 @@
     <t>Saint Vincent and the Grenadines</t>
   </si>
   <si>
-    <t>−13.28</t>
-  </si>
-  <si>
     <t>Mata-Utu</t>
   </si>
   <si>
@@ -523,18 +460,12 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>−13.83</t>
-  </si>
-  <si>
     <t>Apia</t>
   </si>
   <si>
     <t>Samoa</t>
   </si>
   <si>
-    <t>−13.98</t>
-  </si>
-  <si>
     <t>Lilongwe</t>
   </si>
   <si>
@@ -553,9 +484,6 @@
     <t>Honduras</t>
   </si>
   <si>
-    <t>−14.27</t>
-  </si>
-  <si>
     <t>Pago Pago</t>
   </si>
   <si>
@@ -610,9 +538,6 @@
     <t>Yemen</t>
   </si>
   <si>
-    <t>−15.42</t>
-  </si>
-  <si>
     <t>Lusaka</t>
   </si>
   <si>
@@ -625,27 +550,18 @@
     <t>Sudan</t>
   </si>
   <si>
-    <t>−15.78</t>
-  </si>
-  <si>
     <t>Brasília</t>
   </si>
   <si>
     <t>Brazil</t>
   </si>
   <si>
-    <t>−15.92</t>
-  </si>
-  <si>
     <t>Jamestown</t>
   </si>
   <si>
     <t>Saint Helena</t>
   </si>
   <si>
-    <t>−16.5</t>
-  </si>
-  <si>
     <t>Bolivia</t>
   </si>
   <si>
@@ -664,27 +580,18 @@
     <t>Saint Kitts and Nevis</t>
   </si>
   <si>
-    <t>−17.53</t>
-  </si>
-  <si>
     <t>Papeete</t>
   </si>
   <si>
     <t>French Polynesia</t>
   </si>
   <si>
-    <t>−17.75</t>
-  </si>
-  <si>
     <t>Port Vila</t>
   </si>
   <si>
     <t>Vanuatu</t>
   </si>
   <si>
-    <t>−17.85</t>
-  </si>
-  <si>
     <t>Harare</t>
   </si>
   <si>
@@ -727,9 +634,6 @@
     <t>Mauritania</t>
   </si>
   <si>
-    <t>−18.13</t>
-  </si>
-  <si>
     <t>Suva</t>
   </si>
   <si>
@@ -772,18 +676,12 @@
     <t>Haiti</t>
   </si>
   <si>
-    <t>−18.93</t>
-  </si>
-  <si>
     <t>Antananarivo</t>
   </si>
   <si>
     <t>Madagascar</t>
   </si>
   <si>
-    <t>−19.07</t>
-  </si>
-  <si>
     <t>Alofi</t>
   </si>
   <si>
@@ -808,9 +706,6 @@
     <t>Myanmar</t>
   </si>
   <si>
-    <t>−20.15</t>
-  </si>
-  <si>
     <t>Port Louis</t>
   </si>
   <si>
@@ -823,18 +718,12 @@
     <t>Vietnam</t>
   </si>
   <si>
-    <t>−21.13</t>
-  </si>
-  <si>
     <t>Nukuʻalofa</t>
   </si>
   <si>
     <t>Tonga</t>
   </si>
   <si>
-    <t>−21.2</t>
-  </si>
-  <si>
     <t>Avarua</t>
   </si>
   <si>
@@ -847,18 +736,12 @@
     <t>Hong Kong</t>
   </si>
   <si>
-    <t>−22.27</t>
-  </si>
-  <si>
     <t>Nouméa</t>
   </si>
   <si>
     <t>New Caledonia</t>
   </si>
   <si>
-    <t>−22.57</t>
-  </si>
-  <si>
     <t>Windhoek</t>
   </si>
   <si>
@@ -895,9 +778,6 @@
     <t>Saudi Arabia</t>
   </si>
   <si>
-    <t>−24.65</t>
-  </si>
-  <si>
     <t>Gaborone</t>
   </si>
   <si>
@@ -910,9 +790,6 @@
     <t>Taiwan</t>
   </si>
   <si>
-    <t>−25.07</t>
-  </si>
-  <si>
     <t>Adamstown</t>
   </si>
   <si>
@@ -925,9 +802,6 @@
     <t>Bahamas</t>
   </si>
   <si>
-    <t>−25.27</t>
-  </si>
-  <si>
     <t>Asunción</t>
   </si>
   <si>
@@ -940,18 +814,12 @@
     <t>Qatar</t>
   </si>
   <si>
-    <t>−25.73</t>
-  </si>
-  <si>
     <t>Pretoria (executive)</t>
   </si>
   <si>
     <t>South Africa</t>
   </si>
   <si>
-    <t>−25.97</t>
-  </si>
-  <si>
     <t>Maputo</t>
   </si>
   <si>
@@ -964,18 +832,12 @@
     <t>Bahrain</t>
   </si>
   <si>
-    <t>−26.32</t>
-  </si>
-  <si>
     <t>Mbabane (administrative)</t>
   </si>
   <si>
     <t>Eswatini</t>
   </si>
   <si>
-    <t>−26.42</t>
-  </si>
-  <si>
     <t>Lobamba (royal and legislative)</t>
   </si>
   <si>
@@ -985,12 +847,6 @@
     <t>El Aaiún(declared)</t>
   </si>
   <si>
-    <t>Sahrawi Arab Democratic Republic [c]</t>
-  </si>
-  <si>
-    <t>−27.15</t>
-  </si>
-  <si>
     <t>Hanga Roa</t>
   </si>
   <si>
@@ -1006,30 +862,18 @@
     <t>Kathmandu</t>
   </si>
   <si>
-    <t xml:space="preserve">  Nepal</t>
-  </si>
-  <si>
     <t>New Delhi</t>
   </si>
   <si>
     <t>India</t>
   </si>
   <si>
-    <t>−29.05</t>
-  </si>
-  <si>
     <t>Norfolk Island</t>
   </si>
   <si>
-    <t>−29.12</t>
-  </si>
-  <si>
     <t>Bloemfontein (judicial)</t>
   </si>
   <si>
-    <t>−29.3</t>
-  </si>
-  <si>
     <t>Maseru</t>
   </si>
   <si>
@@ -1078,9 +922,6 @@
     <t>Iraq</t>
   </si>
   <si>
-    <t>−33.45</t>
-  </si>
-  <si>
     <t>Santiago (official)</t>
   </si>
   <si>
@@ -1105,9 +946,6 @@
     <t>Lebanon</t>
   </si>
   <si>
-    <t>−33.92</t>
-  </si>
-  <si>
     <t>Cape Town (legislative)</t>
   </si>
   <si>
@@ -1123,9 +961,6 @@
     <t>Afghanistan</t>
   </si>
   <si>
-    <t>−34.6</t>
-  </si>
-  <si>
     <t>Buenos Aires</t>
   </si>
   <si>
@@ -1138,9 +973,6 @@
     <t>Akrotiri and Dhekelia</t>
   </si>
   <si>
-    <t>−34.88</t>
-  </si>
-  <si>
     <t>Montevideo</t>
   </si>
   <si>
@@ -1156,9 +988,6 @@
     <t>Northern Cyprus</t>
   </si>
   <si>
-    <t>−35.3</t>
-  </si>
-  <si>
     <t>Canberra</t>
   </si>
   <si>
@@ -1198,9 +1027,6 @@
     <t>Tunisia</t>
   </si>
   <si>
-    <t>−37.07</t>
-  </si>
-  <si>
     <t>Edinburgh of the Seven Seas</t>
   </si>
   <si>
@@ -1291,9 +1117,6 @@
     <t>Uzbekistan</t>
   </si>
   <si>
-    <t>−41.28</t>
-  </si>
-  <si>
     <t>Wellington</t>
   </si>
   <si>
@@ -1354,9 +1177,6 @@
     <t>Pristina</t>
   </si>
   <si>
-    <t>Kosovo[g]</t>
-  </si>
-  <si>
     <t>Sofia</t>
   </si>
   <si>
@@ -1432,9 +1252,6 @@
     <t>Bern</t>
   </si>
   <si>
-    <t xml:space="preserve"> Switzerland</t>
-  </si>
-  <si>
     <t>Chişinău</t>
   </si>
   <si>
@@ -1522,9 +1339,6 @@
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>−51.68</t>
-  </si>
-  <si>
     <t>Stanley</t>
   </si>
   <si>
@@ -1565,9 +1379,6 @@
   </si>
   <si>
     <t>Isle of Man</t>
-  </si>
-  <si>
-    <t>−54.27</t>
   </si>
   <si>
     <t>King Edward Point</t>
@@ -1673,6 +1484,22 @@
   </si>
   <si>
     <t>Antigua and Barbuda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switzerland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sahrawi Arab Democratic Republic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nepal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kosovo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1719,12 +1546,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2012,2744 +1842,2744 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B247" sqref="B247"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="46.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>-0.25</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>0.38</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>-0.53</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>-1.28</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>1.28</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>1.43</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>1.28</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>-1.93</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>1.43</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>3.13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>-3.43</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>3.13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>3.87</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="1" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>4.17</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>3.75</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>-4.2699999999999996</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>3.87</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>-4.32</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>4.17</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="1" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>4.37</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
+        <v>4.58</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
+        <v>-4.62</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="1" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="2">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>4.37</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
+        <v>4.88</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>4.58</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="1" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
+        <v>4.92</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="1" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
+        <v>5.55</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="B22" s="1" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
+        <v>5.87</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>4.88</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="2">
+        <v>6.12</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>4.92</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="2">
+        <v>-6.17</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="1" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="2">
+        <v>-6.2</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>5.55</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="1" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>5.87</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="1" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="2">
+        <v>6.48</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>6.12</v>
-      </c>
-      <c r="B27" s="1" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" s="2">
+        <v>6.82</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="C28" s="1" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" s="2">
+        <v>6.92</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="1" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" s="2">
+        <v>7.07</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>6.3</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="1" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" s="2">
+        <v>7.48</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>6.48</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>6.8</v>
-      </c>
-      <c r="B32" s="1" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" s="2">
+        <v>-7.92</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="1" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" s="2">
+        <v>8.48</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>6.82</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>6.9</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C34" s="1" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" s="2">
+        <v>-8.52</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>6.92</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="1" t="s">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" s="2">
+        <v>-8.57</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>7.07</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="1" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" s="2">
+        <v>-8.83</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>7.48</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="1" t="s">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" s="2">
+        <v>8.98</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="1" t="s">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" s="2">
+        <v>9.02</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>8.48</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="1" t="s">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" s="2">
+        <v>9.07</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="1" t="s">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" s="2">
+        <v>-9.43</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" s="2">
+        <v>-9.5</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="1" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48" s="2">
+        <v>9.52</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="1" t="s">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" s="2">
+        <v>9.93</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>8.98</v>
-      </c>
-      <c r="B43" s="1" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50" s="2">
+        <v>10</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>9.02</v>
-      </c>
-      <c r="B44" s="1" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51" s="2">
+        <v>-10.42</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>9.07</v>
-      </c>
-      <c r="B45" s="1" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53" s="2">
+        <v>10.67</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="1" t="s">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54" s="2">
+        <v>11.55</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="1" t="s">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55" s="2">
+        <v>11.58</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C55" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56" s="2">
+        <v>-11.68</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>9.52</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="1" t="s">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57" s="2">
+        <v>11.85</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>9.93</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="1" t="s">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A58" s="2">
+        <v>-12.03</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>10</v>
-      </c>
-      <c r="B50" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="1" t="s">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A59" s="2">
+        <v>12.05</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="1" t="s">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A60" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="B52" s="1" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A61" s="2">
+        <v>12.12</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>10.67</v>
-      </c>
-      <c r="B53" s="1" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62" s="2">
+        <v>12.13</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <v>11.55</v>
-      </c>
-      <c r="B54" s="1" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A63" s="2">
+        <v>-12.18</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <v>11.58</v>
-      </c>
-      <c r="B55" s="1" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A64" s="2">
+        <v>12.35</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="1" t="s">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65" s="2">
+        <v>12.52</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>11.85</v>
-      </c>
-      <c r="B57" s="1" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66" s="2">
+        <v>12.65</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A67" s="2">
+        <v>13.1</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C58" s="1" t="s">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A68" s="2">
+        <v>13.15</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <v>12.05</v>
-      </c>
-      <c r="B59" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C59" s="1" t="s">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A69" s="2">
+        <v>-13.28</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>12.1</v>
-      </c>
-      <c r="B60" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C60" s="1" t="s">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A70" s="2">
+        <v>13.45</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>12.12</v>
-      </c>
-      <c r="B61" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C61" s="1" t="s">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A71" s="2">
+        <v>13.47</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>12.13</v>
-      </c>
-      <c r="B62" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="1" t="s">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A72" s="2">
+        <v>13.52</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B63" s="1" t="s">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A73" s="2">
+        <v>13.68</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C73" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>12.35</v>
-      </c>
-      <c r="B64" s="1" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A74" s="2">
+        <v>13.75</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C74" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <v>12.52</v>
-      </c>
-      <c r="B65" s="1" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A75" s="2">
+        <v>-13.83</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C75" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>12.65</v>
-      </c>
-      <c r="B66" s="1" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A76" s="2">
+        <v>-13.98</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C76" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>13.1</v>
-      </c>
-      <c r="B67" s="1" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A77" s="2">
+        <v>14.02</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C77" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
-        <v>13.15</v>
-      </c>
-      <c r="B68" s="1" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A78" s="2">
+        <v>14.1</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C78" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A79" s="2">
+        <v>-14.27</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C79" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C69" s="1" t="s">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A80" s="2">
+        <v>14.58</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <v>13.45</v>
-      </c>
-      <c r="B70" s="1" t="s">
+      <c r="C80" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C70" s="1" t="s">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A81" s="2">
+        <v>14.6</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>13.47</v>
-      </c>
-      <c r="B71" s="1" t="s">
+      <c r="C81" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C71" s="1" t="s">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A82" s="2">
+        <v>14.68</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>13.52</v>
-      </c>
-      <c r="B72" s="1" t="s">
+      <c r="C82" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C72" s="1" t="s">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A83" s="2">
+        <v>14.92</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>13.68</v>
-      </c>
-      <c r="B73" s="1" t="s">
+      <c r="C83" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C73" s="1" t="s">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A84" s="2">
+        <v>15.17</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
-        <v>13.75</v>
-      </c>
-      <c r="B74" s="1" t="s">
+      <c r="C84" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C74" s="1" t="s">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A85" s="2">
+        <v>15.3</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="C85" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B75" s="1" t="s">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A86" s="2">
+        <v>15.33</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C86" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A87" s="2">
+        <v>15.33</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C87" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C76" s="1" t="s">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A88" s="2">
+        <v>-15.42</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>14.02</v>
-      </c>
-      <c r="B77" s="1" t="s">
+      <c r="C88" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C77" s="1" t="s">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A89" s="2">
+        <v>15.63</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>14.1</v>
-      </c>
-      <c r="B78" s="1" t="s">
+      <c r="C89" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C78" s="1" t="s">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A90" s="2">
+        <v>-15.78</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+      <c r="C90" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B79" s="1" t="s">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A91" s="2">
+        <v>-15.92</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C91" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>14.58</v>
-      </c>
-      <c r="B80" s="1" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A92" s="2">
+        <v>-16.5</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C80" s="1" t="s">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A93" s="2">
+        <v>17.12</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>14.6</v>
-      </c>
-      <c r="B81" s="1" t="s">
+      <c r="C93" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A94" s="2">
+        <v>17.25</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C94" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>14.68</v>
-      </c>
-      <c r="B82" s="1" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A95" s="2">
+        <v>17.3</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C95" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <v>14.92</v>
-      </c>
-      <c r="B83" s="1" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A96" s="2">
+        <v>-17.53</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C96" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <v>15.17</v>
-      </c>
-      <c r="B84" s="1" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A97" s="2">
+        <v>-17.75</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C97" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <v>15.3</v>
-      </c>
-      <c r="B85" s="1" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A98" s="2">
+        <v>-17.850000000000001</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C98" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
-        <v>15.33</v>
-      </c>
-      <c r="B86" s="1" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A99" s="2">
+        <v>17.88</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C99" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
-        <v>15.33</v>
-      </c>
-      <c r="B87" s="1" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A100" s="2">
+        <v>17.97</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C100" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A101" s="2">
+        <v>17.98</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C101" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C88" s="1" t="s">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A102" s="2">
+        <v>18.02</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
-        <v>15.63</v>
-      </c>
-      <c r="B89" s="1" t="s">
+      <c r="C102" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C89" s="1" t="s">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A103" s="2">
+        <v>18.07</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+      <c r="C103" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B90" s="1" t="s">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A104" s="2">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C104" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A105" s="2">
+        <v>-18.13</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C105" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C91" s="1" t="s">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A106" s="2">
+        <v>18.22</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+      <c r="C106" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="C92" s="1" t="s">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A107" s="2">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
-        <v>17.12</v>
-      </c>
-      <c r="B93" s="1" t="s">
+      <c r="C107" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
-        <v>17.25</v>
-      </c>
-      <c r="B94" s="1" t="s">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A108" s="2">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C108" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
-        <v>17.3</v>
-      </c>
-      <c r="B95" s="1" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A109" s="2">
+        <v>18.45</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C109" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A110" s="2">
+        <v>18.47</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C110" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C96" s="1" t="s">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A111" s="2">
+        <v>18.53</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+      <c r="C111" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B97" s="1" t="s">
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A112" s="2">
+        <v>-18.93</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C112" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A113" s="2">
+        <v>-19.07</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C113" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C98" s="1" t="s">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A114" s="2">
+        <v>19.3</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
-        <v>17.88</v>
-      </c>
-      <c r="B99" s="1" t="s">
+      <c r="C114" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C99" s="1" t="s">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A115" s="2">
+        <v>19.43</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
-        <v>17.97</v>
-      </c>
-      <c r="B100" s="1" t="s">
+      <c r="C115" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C100" s="1" t="s">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A116" s="2">
+        <v>19.75</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
-        <v>17.98</v>
-      </c>
-      <c r="B101" s="1" t="s">
+      <c r="C116" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C101" s="1" t="s">
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A117" s="2">
+        <v>-20.149999999999999</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
-        <v>18.02</v>
-      </c>
-      <c r="B102" s="1" t="s">
+      <c r="C117" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C102" s="1" t="s">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A118" s="2">
+        <v>21.03</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
-        <v>18.07</v>
-      </c>
-      <c r="B103" s="1" t="s">
+      <c r="C118" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C103" s="1" t="s">
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A119" s="2">
+        <v>-21.13</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="B104" s="1" t="s">
+      <c r="C119" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C104" s="1" t="s">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A120" s="2">
+        <v>-21.2</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
+      <c r="C120" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B105" s="1" t="s">
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A121" s="2">
+        <v>22.18</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C121" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
-        <v>18.22</v>
-      </c>
-      <c r="B106" s="1" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A122" s="2">
+        <v>-22.27</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C122" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
-        <v>18.350000000000001</v>
-      </c>
-      <c r="B107" s="1" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A123" s="2">
+        <v>-22.57</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C123" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
-        <v>18.420000000000002</v>
-      </c>
-      <c r="B108" s="1" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A124" s="2">
+        <v>23.13</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C124" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
-        <v>18.45</v>
-      </c>
-      <c r="B109" s="1" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A125" s="2">
+        <v>23.6</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C125" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
-        <v>18.47</v>
-      </c>
-      <c r="B110" s="1" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A126" s="2">
+        <v>23.73</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C126" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
-        <v>18.53</v>
-      </c>
-      <c r="B111" s="1" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A127" s="2">
+        <v>24.47</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C127" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A128" s="2">
+        <v>24.63</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C128" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C112" s="1" t="s">
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A129" s="2">
+        <v>-24.65</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+      <c r="C129" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B113" s="1" t="s">
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A130" s="2">
+        <v>25.03</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C130" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
-        <v>19.3</v>
-      </c>
-      <c r="B114" s="1" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A131" s="2">
+        <v>-25.07</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C131" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="1">
-        <v>19.43</v>
-      </c>
-      <c r="B115" s="1" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A132" s="2">
+        <v>25.07</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C132" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
-        <v>19.75</v>
-      </c>
-      <c r="B116" s="1" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A133" s="2">
+        <v>-25.27</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C133" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A134" s="2">
+        <v>25.28</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C134" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C117" s="1" t="s">
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A135" s="2">
+        <v>-25.73</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="1">
-        <v>21.03</v>
-      </c>
-      <c r="B118" s="1" t="s">
+      <c r="C135" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C118" s="1" t="s">
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A136" s="2">
+        <v>-25.97</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+      <c r="C136" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B119" s="1" t="s">
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A137" s="2">
+        <v>26.22</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C137" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A138" s="2">
+        <v>-26.32</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="C138" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C120" s="1" t="s">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A139" s="2">
+        <v>-26.42</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="1">
-        <v>22.18</v>
-      </c>
-      <c r="B121" s="1" t="s">
+      <c r="C139" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C121" s="1" t="s">
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A140" s="2">
+        <v>27.15</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
+      <c r="C140" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A141" s="2">
+        <v>-27.15</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="C141" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C122" s="1" t="s">
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A142" s="2">
+        <v>27.47</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
+      <c r="C142" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B123" s="1" t="s">
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A143" s="2">
+        <v>27.7</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C143" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A144" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="1">
-        <v>23.13</v>
-      </c>
-      <c r="B124" s="1" t="s">
+      <c r="C144" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C124" s="1" t="s">
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A145" s="2">
+        <v>-29.05</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C145" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="1">
-        <v>23.6</v>
-      </c>
-      <c r="B125" s="1" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A146" s="2">
+        <v>-29.12</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C146" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A147" s="2">
+        <v>-29.3</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="1">
-        <v>23.73</v>
-      </c>
-      <c r="B126" s="1" t="s">
+      <c r="C147" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C126" s="1" t="s">
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A148" s="2">
+        <v>29.37</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="1">
-        <v>24.47</v>
-      </c>
-      <c r="B127" s="1" t="s">
+      <c r="C148" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C127" s="1" t="s">
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A149" s="2">
+        <v>30.05</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="1">
-        <v>24.63</v>
-      </c>
-      <c r="B128" s="1" t="s">
+      <c r="C149" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C128" s="1" t="s">
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A150" s="2">
+        <v>31.78</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
+      <c r="C150" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B129" s="1" t="s">
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A151" s="2">
+        <v>31.93</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C151" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="1">
-        <v>25.03</v>
-      </c>
-      <c r="B130" s="1" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A152" s="2">
+        <v>32.28</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C152" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A153" s="2">
+        <v>32.9</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="C153" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C131" s="1" t="s">
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A154" s="2">
+        <v>33.33</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="1">
-        <v>25.07</v>
-      </c>
-      <c r="B132" s="1" t="s">
+      <c r="C154" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C132" s="1" t="s">
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A155" s="2">
+        <v>-33.450000000000003</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
+      <c r="C155" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B133" s="1" t="s">
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A156" s="2">
+        <v>33.5</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C156" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="1">
-        <v>25.28</v>
-      </c>
-      <c r="B134" s="1" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A157" s="2">
+        <v>33.72</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C157" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A158" s="2">
+        <v>33.880000000000003</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="C158" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C135" s="1" t="s">
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A159" s="2">
+        <v>-33.92</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
+      <c r="C159" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A160" s="2">
+        <v>34.03</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="C160" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C136" s="1" t="s">
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A161" s="2">
+        <v>34.53</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="1">
-        <v>26.22</v>
-      </c>
-      <c r="B137" s="1" t="s">
+      <c r="C161" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C137" s="1" t="s">
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A162" s="2">
+        <v>-34.6</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
+      <c r="C162" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B138" s="1" t="s">
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A163" s="2">
+        <v>34.67</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C163" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A164" s="2">
+        <v>-34.880000000000003</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="C164" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C139" s="1" t="s">
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A165" s="2">
+        <v>35.17</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="1">
-        <v>27.15</v>
-      </c>
-      <c r="B140" s="1" t="s">
+      <c r="C165" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C140" s="1" t="s">
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A166" s="2">
+        <v>35.17</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C166" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A167" s="2">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="C167" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C141" s="1" t="s">
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A168" s="2">
+        <v>35.68</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="1">
-        <v>27.47</v>
-      </c>
-      <c r="B142" s="1" t="s">
+      <c r="C168" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C142" s="1" t="s">
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A169" s="2">
+        <v>35.68</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="1">
-        <v>27.7</v>
-      </c>
-      <c r="B143" s="1" t="s">
+      <c r="C169" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C143" s="1" t="s">
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A170" s="2">
+        <v>35.880000000000003</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="1">
-        <v>28.6</v>
-      </c>
-      <c r="B144" s="1" t="s">
+      <c r="C170" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C144" s="1" t="s">
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A171" s="2">
+        <v>36.130000000000003</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
+      <c r="C171" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A172" s="2">
+        <v>36.770000000000003</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C145" s="1" t="s">
+      <c r="C172" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A173" s="2">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="C173" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A174" s="2">
+        <v>-37.07</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="C174" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C147" s="1" t="s">
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A175" s="2">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="1">
-        <v>29.37</v>
-      </c>
-      <c r="B148" s="1" t="s">
+      <c r="C175" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C148" s="1" t="s">
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A176" s="2">
+        <v>37.93</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="1">
-        <v>30.05</v>
-      </c>
-      <c r="B149" s="1" t="s">
+      <c r="C176" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C149" s="1" t="s">
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A177" s="2">
+        <v>37.97</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="1">
-        <v>31.78</v>
-      </c>
-      <c r="B150" s="1" t="s">
+      <c r="C177" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C150" s="1" t="s">
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A178" s="2">
+        <v>38.53</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="1">
-        <v>31.93</v>
-      </c>
-      <c r="B151" s="1" t="s">
+      <c r="C178" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C151" s="1" t="s">
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A179" s="2">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="1">
-        <v>32.28</v>
-      </c>
-      <c r="B152" s="1" t="s">
+      <c r="C179" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C152" s="1" t="s">
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A180" s="2">
+        <v>38.9</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="1">
-        <v>32.9</v>
-      </c>
-      <c r="B153" s="1" t="s">
+      <c r="C180" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C153" s="1" t="s">
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A181" s="2">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="1">
-        <v>33.33</v>
-      </c>
-      <c r="B154" s="1" t="s">
+      <c r="C181" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C154" s="1" t="s">
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A182" s="2">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
+      <c r="C182" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B155" s="1" t="s">
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A183" s="2">
+        <v>39.869999999999997</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C183" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="1">
-        <v>33.5</v>
-      </c>
-      <c r="B156" s="1" t="s">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A184" s="2">
+        <v>39.9</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C184" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="1">
-        <v>33.72</v>
-      </c>
-      <c r="B157" s="1" t="s">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A185" s="2">
+        <v>40.18</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C185" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="1">
-        <v>33.880000000000003</v>
-      </c>
-      <c r="B158" s="1" t="s">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A186" s="2">
+        <v>40.380000000000003</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C186" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="s">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A187" s="2">
+        <v>40.380000000000003</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="C187" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="1">
-        <v>34.03</v>
-      </c>
-      <c r="B160" s="1" t="s">
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A188" s="2">
+        <v>41.27</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C188" s="2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="1">
-        <v>34.53</v>
-      </c>
-      <c r="B161" s="1" t="s">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A189" s="2">
+        <v>-41.28</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C189" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="1" t="s">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A190" s="2">
+        <v>41.32</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="C190" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C162" s="1" t="s">
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A191" s="2">
+        <v>41.72</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="1">
-        <v>34.67</v>
-      </c>
-      <c r="B163" s="1" t="s">
+      <c r="C191" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C163" s="1" t="s">
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A192" s="2">
+        <v>41.9</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
+      <c r="C192" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B164" s="1" t="s">
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A193" s="2">
+        <v>41.9</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C193" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="1">
-        <v>35.17</v>
-      </c>
-      <c r="B165" s="1" t="s">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A194" s="2">
+        <v>42</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C194" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="1">
-        <v>35.17</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C166" s="1" t="s">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A195" s="2">
+        <v>42.23</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="1" t="s">
+      <c r="C195" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B167" s="1" t="s">
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A196" s="2">
+        <v>42.25</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C196" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A197" s="2">
+        <v>42.43</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="1">
-        <v>35.68</v>
-      </c>
-      <c r="B168" s="1" t="s">
+      <c r="C197" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C168" s="1" t="s">
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A198" s="2">
+        <v>42.5</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="1">
-        <v>35.68</v>
-      </c>
-      <c r="B169" s="1" t="s">
+      <c r="C198" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C169" s="1" t="s">
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A199" s="2">
+        <v>42.67</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="1">
-        <v>35.880000000000003</v>
-      </c>
-      <c r="B170" s="1" t="s">
+      <c r="C199" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A200" s="2">
+        <v>42.7</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C200" s="2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="1">
-        <v>36.130000000000003</v>
-      </c>
-      <c r="B171" s="1" t="s">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A201" s="2">
+        <v>42.87</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C171" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="1">
-        <v>36.770000000000003</v>
-      </c>
-      <c r="B172" s="1" t="s">
+      <c r="C201" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C172" s="1" t="s">
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A202" s="2">
+        <v>43</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="1">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="B173" s="1" t="s">
+      <c r="C202" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C173" s="1" t="s">
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A203" s="2">
+        <v>43.72</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
+      <c r="C203" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A204" s="2">
+        <v>43.87</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="C204" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C174" s="1" t="s">
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A205" s="2">
+        <v>43.93</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="1">
-        <v>37.549999999999997</v>
-      </c>
-      <c r="B175" s="1" t="s">
+      <c r="C205" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A206" s="2">
+        <v>44.42</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C206" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="1">
-        <v>37.93</v>
-      </c>
-      <c r="B176" s="1" t="s">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A207" s="2">
+        <v>44.82</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C207" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="1">
-        <v>37.97</v>
-      </c>
-      <c r="B177" s="1" t="s">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A208" s="2">
+        <v>45.42</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C208" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="1">
-        <v>38.53</v>
-      </c>
-      <c r="B178" s="1" t="s">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A209" s="2">
+        <v>45.82</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C209" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="1">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="B179" s="1" t="s">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A210" s="2">
+        <v>46.05</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C210" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="1">
-        <v>38.9</v>
-      </c>
-      <c r="B180" s="1" t="s">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A211" s="2">
+        <v>46.77</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C211" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="1">
-        <v>39.020000000000003</v>
-      </c>
-      <c r="B181" s="1" t="s">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A212" s="2">
+        <v>46.85</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C212" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="1">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="B182" s="1" t="s">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A213" s="2">
+        <v>46.95</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C213" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A214" s="2">
+        <v>47</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="1">
-        <v>39.869999999999997</v>
-      </c>
-      <c r="B183" s="1" t="s">
+      <c r="C214" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C183" s="1" t="s">
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A215" s="2">
+        <v>47.13</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="1">
-        <v>39.9</v>
-      </c>
-      <c r="B184" s="1" t="s">
+      <c r="C215" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C184" s="1" t="s">
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A216" s="2">
+        <v>47.47</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="1">
-        <v>40.18</v>
-      </c>
-      <c r="B185" s="1" t="s">
+      <c r="C216" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C185" s="1" t="s">
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A217" s="2">
+        <v>47.92</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="1">
-        <v>40.380000000000003</v>
-      </c>
-      <c r="B186" s="1" t="s">
+      <c r="C217" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C186" s="1" t="s">
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A218" s="2">
+        <v>48.13</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="1">
-        <v>40.380000000000003</v>
-      </c>
-      <c r="B187" s="1" t="s">
+      <c r="C218" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C187" s="1" t="s">
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A219" s="2">
+        <v>48.2</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="1">
-        <v>41.27</v>
-      </c>
-      <c r="B188" s="1" t="s">
+      <c r="C219" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C188" s="1" t="s">
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A220" s="2">
+        <v>48.85</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
+      <c r="C220" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B189" s="1" t="s">
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A221" s="2">
+        <v>49.18</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C221" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="1">
-        <v>41.32</v>
-      </c>
-      <c r="B190" s="1" t="s">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A222" s="2">
+        <v>49.45</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="C222" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="1">
-        <v>41.72</v>
-      </c>
-      <c r="B191" s="1" t="s">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A223" s="2">
+        <v>49.6</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C223" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A224" s="2">
+        <v>50.08</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="1">
-        <v>41.9</v>
-      </c>
-      <c r="B192" s="1" t="s">
+      <c r="C224" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C192" s="1" t="s">
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A225" s="2">
+        <v>50.45</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="1">
-        <v>41.9</v>
-      </c>
-      <c r="B193" s="1" t="s">
+      <c r="C225" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C193" s="1" t="s">
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A226" s="2">
+        <v>50.85</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="1">
-        <v>42</v>
-      </c>
-      <c r="B194" s="1" t="s">
+      <c r="C226" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="C194" s="1" t="s">
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A227" s="2">
+        <v>51.17</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="1">
-        <v>42.23</v>
-      </c>
-      <c r="B195" s="1" t="s">
+      <c r="C227" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C195" s="1" t="s">
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A228" s="2">
+        <v>51.5</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="1">
-        <v>42.25</v>
-      </c>
-      <c r="B196" s="1" t="s">
+      <c r="C228" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C196" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="1">
-        <v>42.43</v>
-      </c>
-      <c r="B197" s="1" t="s">
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A229" s="2">
+        <v>-51.68</v>
+      </c>
+      <c r="B229" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C229" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="1">
-        <v>42.5</v>
-      </c>
-      <c r="B198" s="1" t="s">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A230" s="2">
+        <v>52.23</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="C230" s="2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="1">
-        <v>42.67</v>
-      </c>
-      <c r="B199" s="1" t="s">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A231" s="2">
+        <v>52.37</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="C231" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="1">
-        <v>42.7</v>
-      </c>
-      <c r="B200" s="1" t="s">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A232" s="2">
+        <v>52.52</v>
+      </c>
+      <c r="B232" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="C232" s="2" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="1">
-        <v>42.87</v>
-      </c>
-      <c r="B201" s="1" t="s">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A233" s="2">
+        <v>53.33</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C233" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="1">
-        <v>43</v>
-      </c>
-      <c r="B202" s="1" t="s">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A234" s="2">
+        <v>53.9</v>
+      </c>
+      <c r="B234" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C234" s="2" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="1">
-        <v>43.72</v>
-      </c>
-      <c r="B203" s="1" t="s">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A235" s="2">
+        <v>54.13</v>
+      </c>
+      <c r="B235" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C203" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="1">
-        <v>43.87</v>
-      </c>
-      <c r="B204" s="1" t="s">
+      <c r="C235" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C204" s="1" t="s">
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A236" s="2">
+        <v>-54.27</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="1">
-        <v>43.93</v>
-      </c>
-      <c r="B205" s="1" t="s">
+      <c r="C236" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C205" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="1">
-        <v>44.42</v>
-      </c>
-      <c r="B206" s="1" t="s">
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A237" s="2">
+        <v>54.68</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="C237" s="2" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="1">
-        <v>44.82</v>
-      </c>
-      <c r="B207" s="1" t="s">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A238" s="2">
+        <v>55.67</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="C238" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="1">
-        <v>45.42</v>
-      </c>
-      <c r="B208" s="1" t="s">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A239" s="2">
+        <v>55.75</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="C239" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="1">
-        <v>45.82</v>
-      </c>
-      <c r="B209" s="1" t="s">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A240" s="2">
+        <v>56.93</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="C240" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="1">
-        <v>46.05</v>
-      </c>
-      <c r="B210" s="1" t="s">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A241" s="2">
+        <v>59.32</v>
+      </c>
+      <c r="B241" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="C241" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="1">
-        <v>46.77</v>
-      </c>
-      <c r="B211" s="1" t="s">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A242" s="2">
+        <v>59.43</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="C242" s="2" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="1">
-        <v>46.85</v>
-      </c>
-      <c r="B212" s="1" t="s">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A243" s="2">
+        <v>59.95</v>
+      </c>
+      <c r="B243" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="C243" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="1">
-        <v>46.95</v>
-      </c>
-      <c r="B213" s="1" t="s">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A244" s="2">
+        <v>60.17</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="C244" s="2" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" s="1">
-        <v>47</v>
-      </c>
-      <c r="B214" s="1" t="s">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A245" s="2">
+        <v>62</v>
+      </c>
+      <c r="B245" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="C245" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="1">
-        <v>47.13</v>
-      </c>
-      <c r="B215" s="1" t="s">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A246" s="2">
+        <v>64.13</v>
+      </c>
+      <c r="B246" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="C246" s="2" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="1">
-        <v>47.47</v>
-      </c>
-      <c r="B216" s="1" t="s">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A247" s="2">
+        <v>64.17</v>
+      </c>
+      <c r="B247" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="C247" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="1">
-        <v>47.92</v>
-      </c>
-      <c r="B217" s="1" t="s">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A248" s="2">
+        <v>78.2</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="C248" s="2" t="s">
         <v>473</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="1">
-        <v>48.13</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="1">
-        <v>48.2</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="1">
-        <v>48.85</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="1">
-        <v>49.18</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="1">
-        <v>49.45</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="1">
-        <v>49.6</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="1">
-        <v>50.08</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="1">
-        <v>50.45</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="1">
-        <v>50.85</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="1">
-        <v>51.17</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="1">
-        <v>51.5</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="1">
-        <v>52.23</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="1">
-        <v>52.37</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="1">
-        <v>52.52</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="1">
-        <v>53.33</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" s="1">
-        <v>53.9</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="1">
-        <v>54.13</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="1">
-        <v>54.68</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="1">
-        <v>55.67</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="1">
-        <v>55.75</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="1">
-        <v>56.93</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="1">
-        <v>59.32</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="1">
-        <v>59.43</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" s="1">
-        <v>59.95</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244" s="1">
-        <v>60.17</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" s="1">
-        <v>62</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A246" s="1">
-        <v>64.13</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A247" s="1">
-        <v>64.17</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="1">
-        <v>78.2</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>536</v>
       </c>
     </row>
   </sheetData>
